--- a/Table4_Elson_CRTT-hacking.xlsx
+++ b/Table4_Elson_CRTT-hacking.xlsx
@@ -18,12 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
-    <t>BF10</t>
-  </si>
-  <si>
-    <t>BF20</t>
-  </si>
-  <si>
     <t>Mean volume</t>
   </si>
   <si>
@@ -51,55 +45,42 @@
     <t xml:space="preserve">Mean volume x ln(duration) </t>
   </si>
   <si>
-    <t xml:space="preserve">Sum high volume settings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sum high duration settings </t>
-  </si>
-  <si>
     <t xml:space="preserve">First trial volume </t>
   </si>
   <si>
     <t>First trial duration</t>
   </si>
   <si>
-    <t>Sum low volume settings</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Effect size </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>r</t>
-    </r>
+    <t>BF01</t>
+  </si>
+  <si>
+    <t>BF02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count high volume settings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count high duration settings </t>
+  </si>
+  <si>
+    <t>Count low volume settings</t>
+  </si>
+  <si>
+    <t>r</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode=".000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -120,17 +101,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -151,30 +127,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -477,205 +449,206 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4">
         <v>0.19611609999999999</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>0.8313528</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="3">
         <v>0.20937149999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4">
         <v>0.13226270000000001</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="3">
         <v>1.6330260000000001</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>0.64184399999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4">
         <v>0.2192289</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.60296260000000002</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>0.1380015</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4">
         <v>0.10701720000000001</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>1.97038</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>0.98872459999999995</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
         <v>4.8080320000000003E-2</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>2.6031610000000001</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>2.6601599999999999</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4">
         <v>0.14414779999999999</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>1.472629</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>0.52268040000000004</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4">
         <v>0.1810822</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>1.001465</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="3">
         <v>0.27363419999999999</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4">
         <v>0.18076690000000001</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>1.005196</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="3">
         <v>0.2751672</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
         <v>0.16056509999999999</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>1.2559769999999999</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="3">
         <v>0.39269860000000001</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4">
         <v>0.40416659999999999</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>7.0800209999999997E-3</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="3">
         <v>3.5787599999999998E-3</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="3">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4">
         <v>4.5484959999999998E-2</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>2.6222490000000001</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="3">
         <v>2.7772060000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4">
         <v>3.1219529999999999E-2</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>2.7098490000000002</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>3.5163959999999999</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3">
+        <v>10</v>
+      </c>
+      <c r="B14" s="4">
         <v>1.104248E-2</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>2.7799520000000002</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="3">
         <v>4.900792</v>
       </c>
     </row>
@@ -683,18 +656,19 @@
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <v>-0.33791100000000002</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>5.373124E-2</v>
       </c>
-      <c r="D15" s="5">
-        <v>1.430902E-2</v>
+      <c r="D15">
+        <v>1418.827</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Table4_Elson_CRTT-hacking.xlsx
+++ b/Table4_Elson_CRTT-hacking.xlsx
@@ -45,12 +45,6 @@
     <t xml:space="preserve">Mean volume x ln(duration) </t>
   </si>
   <si>
-    <t xml:space="preserve">First trial volume </t>
-  </si>
-  <si>
-    <t>First trial duration</t>
-  </si>
-  <si>
     <t>BF01</t>
   </si>
   <si>
@@ -67,6 +61,12 @@
   </si>
   <si>
     <t>r</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First-trial volume </t>
+  </si>
+  <si>
+    <t>First-trial duration</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -461,13 +461,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -598,7 +598,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B11" s="4">
         <v>0.40416659999999999</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4">
         <v>4.5484959999999998E-2</v>
@@ -626,7 +626,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4">
         <v>3.1219529999999999E-2</v>
@@ -640,7 +640,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B14" s="4">
         <v>1.104248E-2</v>
@@ -654,7 +654,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>-0.33791100000000002</v>

--- a/Table4_Elson_CRTT-hacking.xlsx
+++ b/Table4_Elson_CRTT-hacking.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Mean volume</t>
   </si>
@@ -67,6 +67,81 @@
   </si>
   <si>
     <t>First-trial duration</t>
+  </si>
+  <si>
+    <t>1-to-1.2</t>
+  </si>
+  <si>
+    <t>1.6-to-1</t>
+  </si>
+  <si>
+    <t>1-to-1.7</t>
+  </si>
+  <si>
+    <t>2.0-to-1</t>
+  </si>
+  <si>
+    <t>2.6-to-1</t>
+  </si>
+  <si>
+    <t>1.5-to-1</t>
+  </si>
+  <si>
+    <t>1.0-to-1</t>
+  </si>
+  <si>
+    <t>1.3-to-1</t>
+  </si>
+  <si>
+    <t>1-to-140</t>
+  </si>
+  <si>
+    <t>2.7-to-1</t>
+  </si>
+  <si>
+    <t>1-to-19</t>
+  </si>
+  <si>
+    <t>2.8-to-1</t>
+  </si>
+  <si>
+    <t>1-to-4.8</t>
+  </si>
+  <si>
+    <t>1-to-1.6</t>
+  </si>
+  <si>
+    <t>1-to-7.2</t>
+  </si>
+  <si>
+    <t>1-to-1.0</t>
+  </si>
+  <si>
+    <t>1-to-1.9</t>
+  </si>
+  <si>
+    <t>1-to-3.7</t>
+  </si>
+  <si>
+    <t>1-to-3.6</t>
+  </si>
+  <si>
+    <t>1-to-2.5</t>
+  </si>
+  <si>
+    <t>1-to-279</t>
+  </si>
+  <si>
+    <t>3.5-to-1</t>
+  </si>
+  <si>
+    <t>4.9-to-1</t>
+  </si>
+  <si>
+    <t>1400-to-1</t>
+  </si>
+  <si>
+    <t>Effect size r calculated as sqrt(F/(F + N - 2))</t>
   </si>
 </sst>
 </file>
@@ -75,7 +150,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode=".000"/>
+    <numFmt numFmtId="166" formatCode=".00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -130,21 +205,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,224 +529,322 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="7" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
+    <col min="5" max="5" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="5" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
-        <v>0.19611609999999999</v>
-      </c>
-      <c r="C2" s="3">
+      <c r="B2" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="6">
         <v>0.8313528</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="6">
         <v>0.20937149999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4">
-        <v>0.13226270000000001</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="C3" s="6">
         <v>1.6330260000000001</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="6">
         <v>0.64184399999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.2192289</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="5">
+        <v>0.22</v>
+      </c>
+      <c r="C4" s="6">
         <v>0.60296260000000002</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="6">
         <v>0.1380015</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.10701720000000001</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="5">
+        <v>0.11</v>
+      </c>
+      <c r="C5" s="6">
         <v>1.97038</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="6">
         <v>0.98872459999999995</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="F5" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="4">
-        <v>4.8080320000000003E-2</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="6">
         <v>2.6031610000000001</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="6">
         <v>2.6601599999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="F6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="4">
-        <v>0.14414779999999999</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C7" s="6">
         <v>1.472629</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="6">
         <v>0.52268040000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="4">
-        <v>0.1810822</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="C8" s="6">
         <v>1.001465</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6">
         <v>0.27363419999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="4">
-        <v>0.18076690000000001</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="5">
+        <v>0.18</v>
+      </c>
+      <c r="C9" s="6">
         <v>1.005196</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="6">
         <v>0.2751672</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="F9" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4">
-        <v>0.16056509999999999</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="5">
+        <v>0.16</v>
+      </c>
+      <c r="C10" s="6">
         <v>1.2559769999999999</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="6">
         <v>0.39269860000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="4">
-        <v>0.40416659999999999</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="6">
         <v>7.0800209999999997E-3</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6">
         <v>3.5787599999999998E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="F11" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4">
-        <v>4.5484959999999998E-2</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="6">
         <v>2.6222490000000001</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="6">
         <v>2.7772060000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="F12" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4">
-        <v>3.1219529999999999E-2</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="C13" s="6">
         <v>2.7098490000000002</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="6">
         <v>3.5163959999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4">
-        <v>1.104248E-2</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C14" s="6">
         <v>2.7799520000000002</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="6">
         <v>4.900792</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="F14" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="4">
-        <v>-0.33791100000000002</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="5">
+        <v>-0.34</v>
+      </c>
+      <c r="C15" s="6">
         <v>5.373124E-2</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7">
         <v>1418.827</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/Table4_Elson_CRTT-hacking.xlsx
+++ b/Table4_Elson_CRTT-hacking.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="150" windowWidth="11475" windowHeight="6735"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Mean volume</t>
   </si>
@@ -142,17 +142,20 @@
   </si>
   <si>
     <t>Effect size r calculated as sqrt(F/(F + N - 2))</t>
+  </si>
+  <si>
+    <t>Quantification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode=".00"/>
+    <numFmt numFmtId="165" formatCode=".00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -219,7 +222,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -228,6 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -317,7 +321,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -352,7 +355,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,14 +530,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="28.140625" customWidth="1"/>
     <col min="2" max="2" width="7.7109375" style="7" customWidth="1"/>
@@ -545,7 +547,10 @@
     <col min="6" max="6" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A1" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="B1" s="2" t="s">
         <v>14</v>
       </c>
@@ -562,7 +567,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -582,7 +587,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -602,7 +607,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -622,7 +627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -642,7 +647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -662,7 +667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -682,7 +687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -702,7 +707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -722,7 +727,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -742,7 +747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -762,7 +767,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -782,7 +787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -802,7 +807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -822,7 +827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
@@ -842,7 +847,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
@@ -854,24 +859,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Table4_Elson_CRTT-hacking.xlsx
+++ b/Table4_Elson_CRTT-hacking.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="150" windowWidth="11475" windowHeight="6735"/>
@@ -11,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>Mean volume</t>
   </si>
@@ -39,9 +39,6 @@
     <t xml:space="preserve">Mean volume x duration </t>
   </si>
   <si>
-    <t>Mean volume x sqrt(duration )</t>
-  </si>
-  <si>
     <t xml:space="preserve">Mean volume x ln(duration) </t>
   </si>
   <si>
@@ -141,21 +138,139 @@
     <t>1400-to-1</t>
   </si>
   <si>
-    <t>Effect size r calculated as sqrt(F/(F + N - 2))</t>
-  </si>
-  <si>
     <t>Quantification</t>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>01</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>02</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Effect size </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> calculated as sqrt(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>F</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + N - 2)). Bayes factors rounded to two significant digits.</t>
+    </r>
+  </si>
+  <si>
+    <t>Mean volume x sqrt(duration)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode=".00"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,16 +279,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <vertAlign val="subscript"/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -208,30 +346,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -321,6 +469,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -355,6 +504,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -530,353 +680,387 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="7" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="0" style="7" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="7"/>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="0" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="27" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:7" ht="21" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>0.8313528</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="10">
+        <v>0.20937149999999999</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.6330260000000001</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0.64184399999999997</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="C4" s="10">
+        <v>0.60296260000000002</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="10">
+        <v>0.1380015</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1.97038</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0.98872459999999995</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.6031610000000001</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2.6601599999999999</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1.472629</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.52268040000000004</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1.001465</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.27363419999999999</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1.005196</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="10">
+        <v>0.2751672</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1.2559769999999999</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.39269860000000001</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="C11" s="10">
+        <v>7.0800209999999997E-3</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="10">
+        <v>3.5787599999999998E-3</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2.6222490000000001</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="10">
+        <v>2.7772060000000001</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.8313528</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="6">
-        <v>0.20937149999999999</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="5">
-        <v>0.13</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.6330260000000001</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="6">
-        <v>0.64184399999999997</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>0.22</v>
-      </c>
-      <c r="C4" s="6">
-        <v>0.60296260000000002</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="6">
-        <v>0.1380015</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5">
-        <v>0.11</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1.97038</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0.98872459999999995</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2.6031610000000001</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="6">
-        <v>2.6601599999999999</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="B13" s="9">
+        <v>0.03</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2.7098490000000002</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="10">
+        <v>3.5163959999999999</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>0.01</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2.7799520000000002</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4.900792</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="9">
+        <v>-0.34</v>
+      </c>
+      <c r="C15" s="10">
+        <v>5.373124E-2</v>
+      </c>
+      <c r="D15" s="10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1.472629</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0.52268040000000004</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="C8" s="6">
-        <v>1.001465</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0.27363419999999999</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="C9" s="6">
-        <v>1.005196</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0.2751672</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5">
-        <v>0.16</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1.2559769999999999</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0.39269860000000001</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="5">
-        <v>0.4</v>
-      </c>
-      <c r="C11" s="6">
-        <v>7.0800209999999997E-3</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="6">
-        <v>3.5787599999999998E-3</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="C12" s="6">
-        <v>2.6222490000000001</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="6">
-        <v>2.7772060000000001</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2.7098490000000002</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="6">
-        <v>3.5163959999999999</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.01</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2.7799520000000002</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="6">
-        <v>4.900792</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="E15" s="11">
+        <v>1418.827</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5">
-        <v>-0.34</v>
-      </c>
-      <c r="C15" s="6">
-        <v>5.373124E-2</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="7">
-        <v>1418.827</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="1">
+    <mergeCell ref="A17:G17"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
